--- a/data/students_list.xlsx
+++ b/data/students_list.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksa\Desktop\combinatorial_optimizaion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D874669-98F5-4469-B25D-AE390267F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53161078-A1D2-4995-95D0-06B2560ADECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -388,14 +397,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,933 +687,1213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="3" customWidth="1"/>
-    <col min="4" max="18" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="18" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" t="str">
+        <f ca="1">_xlfn.BASE(RANDBETWEEN(0,36^8-1),36,8)</f>
+        <v>POK09MQD</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" ca="1" si="0">_xlfn.BASE(RANDBETWEEN(0,36^8-1),36,8)</f>
+        <v>6FXCQ5D9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A6EWOR61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>J5DEILFN</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>UMTWYRHJ</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>72M2Y3E1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>RX9PCC3H</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>W22B2F0I</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4OGXTJND</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>KBJ75PB0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>RZ4O7MLX</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>UF79QPKQ</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>R8I10RNQ</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>G7TL82B4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3" t="s">
+      <c r="B16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>TGSAKAGC</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B8469V9R</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5H54JOMF</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>U041DVIG</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>H1UWE3Y9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7B078T78</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DTIO0JAS</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0WZA2KVR</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5XVXG20B</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3BGE12ZI</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3" t="s">
+      <c r="B26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4QKFHZLZ</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3" t="s">
+      <c r="B27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>HVCZOEW4</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>66SRFUEM</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0FDBFYOZ</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>LZVSN3KW</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>NU1DW9M1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>063J9JAH</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3" t="s">
+      <c r="B33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BP077BEC</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>OCH1RBHA</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="B35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>K03TKJ8A</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ORD7FFOT</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="B37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>EQCFWJ0V</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>N9LZG5VH</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3" t="s">
+      <c r="B39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5YOGAUPM</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3" t="s">
+      <c r="B40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>663OGJ55</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3" t="s">
+      <c r="B41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PMMIN7OP</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0OXJSUX2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="B43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9HOKMP0N</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CMAGOB2P</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="B45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>IVFRMGIW</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>92XNXGMJ</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3" t="s">
+      <c r="B47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9OB53XNU</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>FS9RDHEG</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="B49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>8TONM5VP</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="B50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4GN1YLX8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3" t="s">
+      <c r="B51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>IGOVLAI1</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3" t="s">
+      <c r="B52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BEMTM817</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="B53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>JFQV58F5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="B54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0PQDHTFS</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="B55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>392XPSJM</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="B56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>XOAUM0HG</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>YUC7IR3I</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>VNAN4L3Q</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="B59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>G9E7V5UI</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="B60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>WPLZ6N5T</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>8X1LPOLO</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="B62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>8GPQZ3L2</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="B63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D9MUL2W2</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="B64" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C9KNEIIG</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="B65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>PFO4C3JY</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="B66" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>XM786KAU</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B72" ca="1" si="1">_xlfn.BASE(RANDBETWEEN(0,36^8-1),36,8)</f>
+        <v>Y3TU80U1</v>
+      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="B68" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1XCL9CXJ</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="B69" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>V3KRID9F</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="B70" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>VS0HBUJM</v>
+      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="B71" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Z9B6LUDJ</v>
+      </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="B72" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>B0UDW3R7</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>100</v>
       </c>
     </row>

--- a/data/students_list.xlsx
+++ b/data/students_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksa\Desktop\combinatorial_optimizaion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53161078-A1D2-4995-95D0-06B2560ADECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF566E-9579-47A3-A150-000C1BAFBD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="102">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -355,6 +355,10 @@
   </si>
   <si>
     <t>participate</t>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -687,7 +691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -759,7 +765,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">_xlfn.BASE(RANDBETWEEN(0,36^8-1),36,8)</f>
-        <v>POK09MQD</v>
+        <v>K2HFVC3G</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>100</v>
@@ -777,7 +783,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">_xlfn.BASE(RANDBETWEEN(0,36^8-1),36,8)</f>
-        <v>6FXCQ5D9</v>
+        <v>NZ8YEKTF</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>100</v>
@@ -795,7 +801,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A6EWOR61</v>
+        <v>MVFS9I54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>100</v>
@@ -813,7 +819,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>J5DEILFN</v>
+        <v>LDP5IWV7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>100</v>
@@ -831,7 +837,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>UMTWYRHJ</v>
+        <v>TA8LIQEJ</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
@@ -847,7 +853,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>72M2Y3E1</v>
+        <v>HX1AGR46</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
@@ -863,7 +869,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RX9PCC3H</v>
+        <v>32Z8YYN5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>100</v>
@@ -881,7 +887,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>W22B2F0I</v>
+        <v>CMYH2NKE</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>100</v>
@@ -899,7 +905,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4OGXTJND</v>
+        <v>IQ4B976I</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>100</v>
@@ -917,7 +923,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>KBJ75PB0</v>
+        <v>NIM1AEUM</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>100</v>
@@ -935,7 +941,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RZ4O7MLX</v>
+        <v>FEWONENR</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>100</v>
@@ -953,7 +959,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>UF79QPKQ</v>
+        <v>CY2HEZ7S</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>100</v>
@@ -971,7 +977,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>R8I10RNQ</v>
+        <v>MLCXBDVX</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>100</v>
@@ -989,7 +995,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>G7TL82B4</v>
+        <v>99LAWX1Z</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -1005,7 +1011,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TGSAKAGC</v>
+        <v>A8TZ758R</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
@@ -1021,7 +1027,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B8469V9R</v>
+        <v>EBV9876G</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>100</v>
@@ -1039,7 +1045,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5H54JOMF</v>
+        <v>D5FZFMLE</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>100</v>
@@ -1057,7 +1063,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>U041DVIG</v>
+        <v>GZDENQN2</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>100</v>
@@ -1075,7 +1081,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>H1UWE3Y9</v>
+        <v>Y765TTCE</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>100</v>
@@ -1093,7 +1099,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7B078T78</v>
+        <v>Y5M6BIEY</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>100</v>
@@ -1111,7 +1117,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DTIO0JAS</v>
+        <v>YCJDNZGP</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>100</v>
@@ -1129,7 +1135,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0WZA2KVR</v>
+        <v>LX0DLSJA</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>100</v>
@@ -1147,7 +1153,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5XVXG20B</v>
+        <v>PMX992L4</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>100</v>
@@ -1165,7 +1171,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3BGE12ZI</v>
+        <v>68B66947</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
@@ -1181,7 +1187,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4QKFHZLZ</v>
+        <v>LVS3X4ZC</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
@@ -1197,7 +1203,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HVCZOEW4</v>
+        <v>K04FV6GU</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
@@ -1213,7 +1219,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>66SRFUEM</v>
+        <v>HIEP5S9Q</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
@@ -1229,7 +1235,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0FDBFYOZ</v>
+        <v>IL6LXQH9</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>100</v>
@@ -1247,7 +1253,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>LZVSN3KW</v>
+        <v>ZIK6RC1C</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>100</v>
@@ -1265,7 +1271,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NU1DW9M1</v>
+        <v>C0UXYM4Z</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>100</v>
@@ -1283,7 +1289,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>063J9JAH</v>
+        <v>WMV0WH59</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>100</v>
@@ -1301,7 +1307,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BP077BEC</v>
+        <v>KKIQ0BCA</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
@@ -1317,7 +1323,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OCH1RBHA</v>
+        <v>NLJ9STKT</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>100</v>
@@ -1335,7 +1341,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>K03TKJ8A</v>
+        <v>DVOO5KGK</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>100</v>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ORD7FFOT</v>
+        <v>SJ1PHXV3</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>100</v>
@@ -1371,7 +1377,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>EQCFWJ0V</v>
+        <v>76L05RKZ</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>100</v>
@@ -1389,7 +1395,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>N9LZG5VH</v>
+        <v>UIPJ2TXD</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>100</v>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5YOGAUPM</v>
+        <v>SBUTJZZ8</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
@@ -1423,7 +1429,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>663OGJ55</v>
+        <v>7Z3KD4R6</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
@@ -1439,7 +1445,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PMMIN7OP</v>
+        <v>PBHYI2HB</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
@@ -1455,7 +1461,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0OXJSUX2</v>
+        <v>W1WQQI5M</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>100</v>
@@ -1473,7 +1479,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9HOKMP0N</v>
+        <v>EVX6P7OF</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>100</v>
@@ -1491,7 +1497,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CMAGOB2P</v>
+        <v>SD20UH84</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>100</v>
@@ -1509,7 +1515,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IVFRMGIW</v>
+        <v>NJR5JO2W</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>100</v>
@@ -1527,7 +1533,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>92XNXGMJ</v>
+        <v>QOTZY6EH</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>100</v>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9OB53XNU</v>
+        <v>OWUQ2QND</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
@@ -1561,7 +1567,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FS9RDHEG</v>
+        <v>BJWDPV5K</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>100</v>
@@ -1579,7 +1585,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8TONM5VP</v>
+        <v>D313HNJN</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>100</v>
@@ -1597,7 +1603,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4GN1YLX8</v>
+        <v>48GYEGB8</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>100</v>
@@ -1615,7 +1621,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IGOVLAI1</v>
+        <v>H7DLXQVJ</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="1" t="s">
@@ -1631,7 +1637,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BEMTM817</v>
+        <v>C4CWV4A5</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="1" t="s">
@@ -1647,7 +1653,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JFQV58F5</v>
+        <v>8J3MZAYL</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>100</v>
@@ -1665,7 +1671,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0PQDHTFS</v>
+        <v>6IZOV4G2</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>100</v>
@@ -1683,7 +1689,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>392XPSJM</v>
+        <v>WQQFVZGY</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>100</v>
@@ -1701,7 +1707,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>XOAUM0HG</v>
+        <v>7QO6H8P0</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>100</v>
@@ -1719,10 +1725,16 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YUC7IR3I</v>
+        <v>HOH3IOZC</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1731,10 +1743,16 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VNAN4L3Q</v>
+        <v>Y3I156XX</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1743,10 +1761,16 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>G9E7V5UI</v>
+        <v>NRYBUTQI</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1755,10 +1779,16 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>WPLZ6N5T</v>
+        <v>EHUWD7IC</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1767,7 +1797,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8X1LPOLO</v>
+        <v>HRNR80SD</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>100</v>
@@ -1779,7 +1809,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8GPQZ3L2</v>
+        <v>R227JA7I</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>100</v>
@@ -1791,7 +1821,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D9MUL2W2</v>
+        <v>VDXWOFR6</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -1801,7 +1831,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C9KNEIIG</v>
+        <v>ET32RAAY</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>100</v>
@@ -1813,7 +1843,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PFO4C3JY</v>
+        <v>VBUAT7L1</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>100</v>
@@ -1825,7 +1855,7 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>XM786KAU</v>
+        <v>894EF094</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>100</v>
@@ -1837,7 +1867,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B72" ca="1" si="1">_xlfn.BASE(RANDBETWEEN(0,36^8-1),36,8)</f>
-        <v>Y3TU80U1</v>
+        <v>P95W0IPT</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -1847,7 +1877,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1XCL9CXJ</v>
+        <v>8DB2IVBW</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>100</v>
@@ -1859,7 +1889,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>V3KRID9F</v>
+        <v>5MRHBB8O</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>100</v>
@@ -1871,7 +1901,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VS0HBUJM</v>
+        <v>VJR0622D</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -1881,7 +1911,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Z9B6LUDJ</v>
+        <v>NH8TS75T</v>
       </c>
       <c r="C71" s="2"/>
     </row>
@@ -1891,7 +1921,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>B0UDW3R7</v>
+        <v>RCTMGLHN</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>100</v>
